--- a/docs/collections/genji/metadata/data.xlsx
+++ b/docs/collections/genji/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t>タイトル</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/275151</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library, The University of Tokyo, JAPAN</t>
   </si>
   <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
@@ -2057,18 +2060,20 @@
       <c r="O3" t="s">
         <v>66</v>
       </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s"/>
       <c r="V3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
@@ -2080,7 +2085,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -2104,38 +2109,40 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
         <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
         <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s"/>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
@@ -2147,7 +2154,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -2171,38 +2178,40 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
         <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
         <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U5" t="s"/>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
@@ -2214,7 +2223,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -2238,38 +2247,40 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
         <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
         <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s"/>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
@@ -2281,7 +2292,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -2305,38 +2316,40 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
         <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U7" t="s"/>
       <c r="V7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
@@ -2348,7 +2361,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2372,38 +2385,40 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
         <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
         <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U8" t="s"/>
       <c r="V8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
@@ -2415,7 +2430,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -2439,38 +2454,40 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
         <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s">
         <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U9" t="s"/>
       <c r="V9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
@@ -2482,7 +2499,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -2506,38 +2523,40 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
         <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s">
         <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
+      </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U10" t="s"/>
       <c r="V10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
@@ -2549,7 +2568,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -2573,38 +2592,40 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
         <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s">
         <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U11" t="s"/>
       <c r="V11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
@@ -2616,7 +2637,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -2640,38 +2661,40 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
         <v>62</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
         <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U12" t="s"/>
       <c r="V12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
@@ -2683,7 +2706,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -2707,38 +2730,40 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
         <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U13" t="s"/>
       <c r="V13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
@@ -2750,7 +2775,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -2774,38 +2799,40 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
         <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>155</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="P14" t="s">
+        <v>67</v>
+      </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U14" t="s"/>
       <c r="V14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
@@ -2817,7 +2844,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -2841,38 +2868,40 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
         <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="P15" t="s">
+        <v>67</v>
+      </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U15" t="s"/>
       <c r="V15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
@@ -2884,7 +2913,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -2908,38 +2937,40 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
         <v>62</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
         <v>64</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>171</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="P16" t="s">
+        <v>67</v>
+      </c>
       <c r="Q16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U16" t="s"/>
       <c r="V16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
@@ -2951,7 +2982,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -2975,38 +3006,40 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
         <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s">
         <v>64</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="P17" t="s">
+        <v>67</v>
+      </c>
       <c r="Q17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U17" t="s"/>
       <c r="V17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
@@ -3018,7 +3051,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -3042,38 +3075,40 @@
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
         <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s">
         <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>187</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="P18" t="s">
+        <v>67</v>
+      </c>
       <c r="Q18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U18" t="s"/>
       <c r="V18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
@@ -3085,7 +3120,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -3109,38 +3144,40 @@
         <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
         <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s">
         <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>195</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>196</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
       <c r="Q19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U19" t="s"/>
       <c r="V19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
@@ -3152,7 +3189,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -3176,38 +3213,40 @@
         <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
         <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s">
         <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>203</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U20" t="s"/>
       <c r="V20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
@@ -3219,7 +3258,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -3243,38 +3282,40 @@
         <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
         <v>62</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s">
         <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>211</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="P21" t="s">
+        <v>67</v>
+      </c>
       <c r="Q21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U21" t="s"/>
       <c r="V21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
@@ -3286,7 +3327,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -3310,38 +3351,40 @@
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
         <v>62</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s">
         <v>64</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>219</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="P22" t="s">
+        <v>67</v>
+      </c>
       <c r="Q22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U22" t="s"/>
       <c r="V22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
@@ -3353,7 +3396,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -3377,38 +3420,40 @@
         <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
         <v>62</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s">
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="P23" t="s">
+        <v>67</v>
+      </c>
       <c r="Q23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U23" t="s"/>
       <c r="V23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
@@ -3420,7 +3465,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -3444,38 +3489,40 @@
         <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
         <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s">
         <v>64</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>235</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="P24" t="s">
+        <v>67</v>
+      </c>
       <c r="Q24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U24" t="s"/>
       <c r="V24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
@@ -3487,7 +3534,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -3511,38 +3558,40 @@
         <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
         <v>62</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s">
         <v>64</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="P25" t="s">
+        <v>67</v>
+      </c>
       <c r="Q25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U25" t="s"/>
       <c r="V25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
@@ -3554,7 +3603,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -3578,38 +3627,40 @@
         <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
         <v>62</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s">
         <v>64</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s">
-        <v>251</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="P26" t="s">
+        <v>67</v>
+      </c>
       <c r="Q26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U26" t="s"/>
       <c r="V26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
@@ -3621,7 +3672,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -3645,38 +3696,40 @@
         <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
         <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s">
         <v>64</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>259</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="P27" t="s">
+        <v>67</v>
+      </c>
       <c r="Q27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U27" t="s"/>
       <c r="V27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
@@ -3688,7 +3741,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -3712,38 +3765,40 @@
         <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>62</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s">
         <v>64</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s">
-        <v>267</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>268</v>
+      </c>
+      <c r="P28" t="s">
+        <v>67</v>
+      </c>
       <c r="Q28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="U28" t="s"/>
       <c r="V28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
@@ -3755,7 +3810,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -3779,38 +3834,40 @@
         <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
         <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s">
         <v>64</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>275</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>276</v>
+      </c>
+      <c r="P29" t="s">
+        <v>67</v>
+      </c>
       <c r="Q29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="U29" t="s"/>
       <c r="V29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
@@ -3822,7 +3879,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -3846,38 +3903,40 @@
         <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
         <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s">
         <v>64</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>283</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="P30" t="s">
+        <v>67</v>
+      </c>
       <c r="Q30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U30" t="s"/>
       <c r="V30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
@@ -3889,7 +3948,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -3913,38 +3972,40 @@
         <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
         <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s">
         <v>64</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s">
-        <v>291</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>292</v>
+      </c>
+      <c r="P31" t="s">
+        <v>67</v>
+      </c>
       <c r="Q31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U31" t="s"/>
       <c r="V31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
@@ -3956,7 +4017,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -3980,38 +4041,40 @@
         <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
         <v>62</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s">
         <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>299</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>300</v>
+      </c>
+      <c r="P32" t="s">
+        <v>67</v>
+      </c>
       <c r="Q32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U32" t="s"/>
       <c r="V32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
@@ -4023,7 +4086,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -4047,38 +4110,40 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
         <v>62</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s">
         <v>64</v>
       </c>
       <c r="N33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>307</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>308</v>
+      </c>
+      <c r="P33" t="s">
+        <v>67</v>
+      </c>
       <c r="Q33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U33" t="s"/>
       <c r="V33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
@@ -4090,7 +4155,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -4114,38 +4179,40 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
         <v>62</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s">
         <v>64</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s">
-        <v>315</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>316</v>
+      </c>
+      <c r="P34" t="s">
+        <v>67</v>
+      </c>
       <c r="Q34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="U34" t="s"/>
       <c r="V34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
@@ -4157,7 +4224,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -4181,38 +4248,40 @@
         <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
         <v>62</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s">
         <v>64</v>
       </c>
       <c r="N35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O35" t="s">
-        <v>323</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>324</v>
+      </c>
+      <c r="P35" t="s">
+        <v>67</v>
+      </c>
       <c r="Q35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U35" t="s"/>
       <c r="V35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
@@ -4224,7 +4293,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -4248,38 +4317,40 @@
         <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
         <v>62</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s">
         <v>64</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s">
-        <v>331</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>332</v>
+      </c>
+      <c r="P36" t="s">
+        <v>67</v>
+      </c>
       <c r="Q36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U36" t="s"/>
       <c r="V36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
@@ -4291,7 +4362,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -4315,38 +4386,40 @@
         <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
         <v>62</v>
       </c>
       <c r="L37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s">
         <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" t="s">
-        <v>339</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>340</v>
+      </c>
+      <c r="P37" t="s">
+        <v>67</v>
+      </c>
       <c r="Q37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U37" t="s"/>
       <c r="V37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
@@ -4358,7 +4431,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -4382,38 +4455,40 @@
         <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
         <v>62</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s">
         <v>64</v>
       </c>
       <c r="N38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>347</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>348</v>
+      </c>
+      <c r="P38" t="s">
+        <v>67</v>
+      </c>
       <c r="Q38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U38" t="s"/>
       <c r="V38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
@@ -4425,7 +4500,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -4449,38 +4524,40 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
         <v>62</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s">
         <v>64</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s">
-        <v>355</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>356</v>
+      </c>
+      <c r="P39" t="s">
+        <v>67</v>
+      </c>
       <c r="Q39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U39" t="s"/>
       <c r="V39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
@@ -4492,7 +4569,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -4516,38 +4593,40 @@
         <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
         <v>62</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s">
         <v>64</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>363</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>364</v>
+      </c>
+      <c r="P40" t="s">
+        <v>67</v>
+      </c>
       <c r="Q40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U40" t="s"/>
       <c r="V40" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
@@ -4559,7 +4638,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
@@ -4583,38 +4662,40 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
         <v>62</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M41" t="s">
         <v>64</v>
       </c>
       <c r="N41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>371</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>372</v>
+      </c>
+      <c r="P41" t="s">
+        <v>67</v>
+      </c>
       <c r="Q41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U41" t="s"/>
       <c r="V41" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
@@ -4626,7 +4707,7 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
@@ -4650,38 +4731,40 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
         <v>62</v>
       </c>
       <c r="L42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s">
         <v>64</v>
       </c>
       <c r="N42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s">
-        <v>379</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>380</v>
+      </c>
+      <c r="P42" t="s">
+        <v>67</v>
+      </c>
       <c r="Q42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="U42" t="s"/>
       <c r="V42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
@@ -4693,7 +4776,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
@@ -4717,38 +4800,40 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
         <v>62</v>
       </c>
       <c r="L43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s">
         <v>64</v>
       </c>
       <c r="N43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s">
-        <v>387</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>388</v>
+      </c>
+      <c r="P43" t="s">
+        <v>67</v>
+      </c>
       <c r="Q43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U43" t="s"/>
       <c r="V43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
@@ -4760,7 +4845,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
@@ -4784,38 +4869,40 @@
         <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K44" t="s">
         <v>62</v>
       </c>
       <c r="L44" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s">
         <v>64</v>
       </c>
       <c r="N44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s">
-        <v>395</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>396</v>
+      </c>
+      <c r="P44" t="s">
+        <v>67</v>
+      </c>
       <c r="Q44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U44" t="s"/>
       <c r="V44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
@@ -4827,7 +4914,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -4851,38 +4938,40 @@
         <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
         <v>62</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M45" t="s">
         <v>64</v>
       </c>
       <c r="N45" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O45" t="s">
-        <v>403</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>404</v>
+      </c>
+      <c r="P45" t="s">
+        <v>67</v>
+      </c>
       <c r="Q45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U45" t="s"/>
       <c r="V45" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
@@ -4894,7 +4983,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
@@ -4918,38 +5007,40 @@
         <v>59</v>
       </c>
       <c r="I46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
         <v>62</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M46" t="s">
         <v>64</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>411</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>412</v>
+      </c>
+      <c r="P46" t="s">
+        <v>67</v>
+      </c>
       <c r="Q46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U46" t="s"/>
       <c r="V46" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
@@ -4961,7 +5052,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
@@ -4985,38 +5076,40 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
         <v>62</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M47" t="s">
         <v>64</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O47" t="s">
-        <v>419</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>420</v>
+      </c>
+      <c r="P47" t="s">
+        <v>67</v>
+      </c>
       <c r="Q47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U47" t="s"/>
       <c r="V47" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
@@ -5028,7 +5121,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -5052,38 +5145,40 @@
         <v>59</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K48" t="s">
         <v>62</v>
       </c>
       <c r="L48" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M48" t="s">
         <v>64</v>
       </c>
       <c r="N48" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O48" t="s">
-        <v>427</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>428</v>
+      </c>
+      <c r="P48" t="s">
+        <v>67</v>
+      </c>
       <c r="Q48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="U48" t="s"/>
       <c r="V48" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
@@ -5095,7 +5190,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -5119,38 +5214,40 @@
         <v>59</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
         <v>62</v>
       </c>
       <c r="L49" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M49" t="s">
         <v>64</v>
       </c>
       <c r="N49" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s">
-        <v>435</v>
-      </c>
-      <c r="P49" t="s"/>
+        <v>436</v>
+      </c>
+      <c r="P49" t="s">
+        <v>67</v>
+      </c>
       <c r="Q49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U49" t="s"/>
       <c r="V49" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
@@ -5162,7 +5259,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
@@ -5186,38 +5283,40 @@
         <v>59</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s">
         <v>62</v>
       </c>
       <c r="L50" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M50" t="s">
         <v>64</v>
       </c>
       <c r="N50" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s">
-        <v>443</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>444</v>
+      </c>
+      <c r="P50" t="s">
+        <v>67</v>
+      </c>
       <c r="Q50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U50" t="s"/>
       <c r="V50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
@@ -5229,7 +5328,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -5253,38 +5352,40 @@
         <v>59</v>
       </c>
       <c r="I51" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K51" t="s">
         <v>62</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s">
         <v>64</v>
       </c>
       <c r="N51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s">
-        <v>451</v>
-      </c>
-      <c r="P51" t="s"/>
+        <v>452</v>
+      </c>
+      <c r="P51" t="s">
+        <v>67</v>
+      </c>
       <c r="Q51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U51" t="s"/>
       <c r="V51" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
@@ -5296,7 +5397,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -5320,38 +5421,40 @@
         <v>59</v>
       </c>
       <c r="I52" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J52" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K52" t="s">
         <v>62</v>
       </c>
       <c r="L52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
       </c>
       <c r="N52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O52" t="s">
-        <v>459</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>460</v>
+      </c>
+      <c r="P52" t="s">
+        <v>67</v>
+      </c>
       <c r="Q52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="U52" t="s"/>
       <c r="V52" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
@@ -5363,7 +5466,7 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -5387,38 +5490,40 @@
         <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J53" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K53" t="s">
         <v>62</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M53" t="s">
         <v>64</v>
       </c>
       <c r="N53" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s">
-        <v>467</v>
-      </c>
-      <c r="P53" t="s"/>
+        <v>468</v>
+      </c>
+      <c r="P53" t="s">
+        <v>67</v>
+      </c>
       <c r="Q53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="U53" t="s"/>
       <c r="V53" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
@@ -5430,7 +5535,7 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
@@ -5454,38 +5559,40 @@
         <v>59</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K54" t="s">
         <v>62</v>
       </c>
       <c r="L54" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M54" t="s">
         <v>64</v>
       </c>
       <c r="N54" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s">
-        <v>475</v>
-      </c>
-      <c r="P54" t="s"/>
+        <v>476</v>
+      </c>
+      <c r="P54" t="s">
+        <v>67</v>
+      </c>
       <c r="Q54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U54" t="s"/>
       <c r="V54" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
@@ -5497,7 +5604,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -5521,38 +5628,40 @@
         <v>59</v>
       </c>
       <c r="I55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J55" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K55" t="s">
         <v>62</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M55" t="s">
         <v>64</v>
       </c>
       <c r="N55" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O55" t="s">
-        <v>483</v>
-      </c>
-      <c r="P55" t="s"/>
+        <v>484</v>
+      </c>
+      <c r="P55" t="s">
+        <v>67</v>
+      </c>
       <c r="Q55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U55" t="s"/>
       <c r="V55" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
@@ -5564,7 +5673,7 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
@@ -5588,38 +5697,40 @@
         <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J56" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
         <v>62</v>
       </c>
       <c r="L56" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M56" t="s">
         <v>64</v>
       </c>
       <c r="N56" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O56" t="s">
-        <v>491</v>
-      </c>
-      <c r="P56" t="s"/>
+        <v>492</v>
+      </c>
+      <c r="P56" t="s">
+        <v>67</v>
+      </c>
       <c r="Q56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="U56" t="s"/>
       <c r="V56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>

--- a/docs/collections/genji/metadata/data.xlsx
+++ b/docs/collections/genji/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t>タイトル</t>
   </si>
@@ -1484,6 +1484,14 @@
   </si>
   <si>
     <t>夢浮橋</t>
+  </si>
+  <si>
+    <t>青洲文庫書名は帙題簽による
+巻次は題簽による
+責任表示は『日本古典籍総合目録データベース』による
+朱筆書き入れあり
+虫損あり
+旧請求記号 E23:48</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/090075d0-3e81-8414-5d57-62c516f49e47.json</t>
@@ -2067,7 +2075,9 @@
         <v>68</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
       <c r="T3" t="s">
         <v>69</v>
       </c>
@@ -2136,7 +2146,9 @@
         <v>68</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="s">
+        <v>53</v>
+      </c>
       <c r="T4" t="s">
         <v>77</v>
       </c>
@@ -2205,7 +2217,9 @@
         <v>68</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
       <c r="T5" t="s">
         <v>85</v>
       </c>
@@ -2274,7 +2288,9 @@
         <v>68</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
       <c r="T6" t="s">
         <v>93</v>
       </c>
@@ -2343,7 +2359,9 @@
         <v>68</v>
       </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="s">
+        <v>53</v>
+      </c>
       <c r="T7" t="s">
         <v>101</v>
       </c>
@@ -2412,7 +2430,9 @@
         <v>68</v>
       </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="s">
+        <v>53</v>
+      </c>
       <c r="T8" t="s">
         <v>109</v>
       </c>
@@ -2481,7 +2501,9 @@
         <v>68</v>
       </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
       <c r="T9" t="s">
         <v>117</v>
       </c>
@@ -2550,7 +2572,9 @@
         <v>68</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="s">
+        <v>53</v>
+      </c>
       <c r="T10" t="s">
         <v>125</v>
       </c>
@@ -2619,7 +2643,9 @@
         <v>68</v>
       </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="s">
+        <v>53</v>
+      </c>
       <c r="T11" t="s">
         <v>133</v>
       </c>
@@ -2688,7 +2714,9 @@
         <v>68</v>
       </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="s">
+        <v>53</v>
+      </c>
       <c r="T12" t="s">
         <v>141</v>
       </c>
@@ -2757,7 +2785,9 @@
         <v>68</v>
       </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="s">
+        <v>53</v>
+      </c>
       <c r="T13" t="s">
         <v>149</v>
       </c>
@@ -2826,7 +2856,9 @@
         <v>68</v>
       </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="s">
+        <v>53</v>
+      </c>
       <c r="T14" t="s">
         <v>157</v>
       </c>
@@ -2895,7 +2927,9 @@
         <v>68</v>
       </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="s">
+        <v>53</v>
+      </c>
       <c r="T15" t="s">
         <v>165</v>
       </c>
@@ -2964,7 +2998,9 @@
         <v>68</v>
       </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="s">
+        <v>53</v>
+      </c>
       <c r="T16" t="s">
         <v>173</v>
       </c>
@@ -3033,7 +3069,9 @@
         <v>68</v>
       </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="s">
+        <v>53</v>
+      </c>
       <c r="T17" t="s">
         <v>181</v>
       </c>
@@ -3102,7 +3140,9 @@
         <v>68</v>
       </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="s">
+        <v>53</v>
+      </c>
       <c r="T18" t="s">
         <v>189</v>
       </c>
@@ -3171,7 +3211,9 @@
         <v>68</v>
       </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="s">
+        <v>53</v>
+      </c>
       <c r="T19" t="s">
         <v>197</v>
       </c>
@@ -3240,7 +3282,9 @@
         <v>68</v>
       </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="s">
+        <v>53</v>
+      </c>
       <c r="T20" t="s">
         <v>205</v>
       </c>
@@ -3309,7 +3353,9 @@
         <v>68</v>
       </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="s">
+        <v>53</v>
+      </c>
       <c r="T21" t="s">
         <v>213</v>
       </c>
@@ -3378,7 +3424,9 @@
         <v>68</v>
       </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="s">
+        <v>53</v>
+      </c>
       <c r="T22" t="s">
         <v>221</v>
       </c>
@@ -3447,7 +3495,9 @@
         <v>68</v>
       </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="s">
+        <v>53</v>
+      </c>
       <c r="T23" t="s">
         <v>229</v>
       </c>
@@ -3516,7 +3566,9 @@
         <v>68</v>
       </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="s">
+        <v>53</v>
+      </c>
       <c r="T24" t="s">
         <v>237</v>
       </c>
@@ -3585,7 +3637,9 @@
         <v>68</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="s">
+        <v>53</v>
+      </c>
       <c r="T25" t="s">
         <v>245</v>
       </c>
@@ -3654,7 +3708,9 @@
         <v>68</v>
       </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
       <c r="T26" t="s">
         <v>253</v>
       </c>
@@ -3723,7 +3779,9 @@
         <v>68</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="s">
+        <v>53</v>
+      </c>
       <c r="T27" t="s">
         <v>261</v>
       </c>
@@ -3792,7 +3850,9 @@
         <v>68</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="s">
+        <v>53</v>
+      </c>
       <c r="T28" t="s">
         <v>269</v>
       </c>
@@ -3861,7 +3921,9 @@
         <v>68</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="s">
+        <v>53</v>
+      </c>
       <c r="T29" t="s">
         <v>277</v>
       </c>
@@ -3930,7 +3992,9 @@
         <v>68</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="s">
+        <v>53</v>
+      </c>
       <c r="T30" t="s">
         <v>285</v>
       </c>
@@ -3999,7 +4063,9 @@
         <v>68</v>
       </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="s">
+        <v>53</v>
+      </c>
       <c r="T31" t="s">
         <v>293</v>
       </c>
@@ -4068,7 +4134,9 @@
         <v>68</v>
       </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="s">
+        <v>53</v>
+      </c>
       <c r="T32" t="s">
         <v>301</v>
       </c>
@@ -4137,7 +4205,9 @@
         <v>68</v>
       </c>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="s">
+        <v>53</v>
+      </c>
       <c r="T33" t="s">
         <v>309</v>
       </c>
@@ -4206,7 +4276,9 @@
         <v>68</v>
       </c>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="s">
+        <v>53</v>
+      </c>
       <c r="T34" t="s">
         <v>317</v>
       </c>
@@ -4275,7 +4347,9 @@
         <v>68</v>
       </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="s">
+        <v>53</v>
+      </c>
       <c r="T35" t="s">
         <v>325</v>
       </c>
@@ -4344,7 +4418,9 @@
         <v>68</v>
       </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="s">
+        <v>53</v>
+      </c>
       <c r="T36" t="s">
         <v>333</v>
       </c>
@@ -4413,7 +4489,9 @@
         <v>68</v>
       </c>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="s">
+        <v>53</v>
+      </c>
       <c r="T37" t="s">
         <v>341</v>
       </c>
@@ -4482,7 +4560,9 @@
         <v>68</v>
       </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="s">
+        <v>53</v>
+      </c>
       <c r="T38" t="s">
         <v>349</v>
       </c>
@@ -4551,7 +4631,9 @@
         <v>68</v>
       </c>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="s">
+        <v>53</v>
+      </c>
       <c r="T39" t="s">
         <v>357</v>
       </c>
@@ -4620,7 +4702,9 @@
         <v>68</v>
       </c>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="s">
+        <v>53</v>
+      </c>
       <c r="T40" t="s">
         <v>365</v>
       </c>
@@ -4689,7 +4773,9 @@
         <v>68</v>
       </c>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="s">
+        <v>53</v>
+      </c>
       <c r="T41" t="s">
         <v>373</v>
       </c>
@@ -4758,7 +4844,9 @@
         <v>68</v>
       </c>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="s">
+        <v>53</v>
+      </c>
       <c r="T42" t="s">
         <v>381</v>
       </c>
@@ -4827,7 +4915,9 @@
         <v>68</v>
       </c>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="s">
+        <v>53</v>
+      </c>
       <c r="T43" t="s">
         <v>389</v>
       </c>
@@ -4896,7 +4986,9 @@
         <v>68</v>
       </c>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="s">
+        <v>53</v>
+      </c>
       <c r="T44" t="s">
         <v>397</v>
       </c>
@@ -4965,7 +5057,9 @@
         <v>68</v>
       </c>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="s">
+        <v>53</v>
+      </c>
       <c r="T45" t="s">
         <v>405</v>
       </c>
@@ -5034,7 +5128,9 @@
         <v>68</v>
       </c>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="s">
+        <v>53</v>
+      </c>
       <c r="T46" t="s">
         <v>413</v>
       </c>
@@ -5103,7 +5199,9 @@
         <v>68</v>
       </c>
       <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="s">
+        <v>53</v>
+      </c>
       <c r="T47" t="s">
         <v>421</v>
       </c>
@@ -5172,7 +5270,9 @@
         <v>68</v>
       </c>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="s">
+        <v>53</v>
+      </c>
       <c r="T48" t="s">
         <v>429</v>
       </c>
@@ -5241,7 +5341,9 @@
         <v>68</v>
       </c>
       <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="S49" t="s">
+        <v>53</v>
+      </c>
       <c r="T49" t="s">
         <v>437</v>
       </c>
@@ -5310,7 +5412,9 @@
         <v>68</v>
       </c>
       <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+      <c r="S50" t="s">
+        <v>53</v>
+      </c>
       <c r="T50" t="s">
         <v>445</v>
       </c>
@@ -5379,7 +5483,9 @@
         <v>68</v>
       </c>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="s">
+        <v>53</v>
+      </c>
       <c r="T51" t="s">
         <v>453</v>
       </c>
@@ -5448,7 +5554,9 @@
         <v>68</v>
       </c>
       <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="S52" t="s">
+        <v>53</v>
+      </c>
       <c r="T52" t="s">
         <v>461</v>
       </c>
@@ -5517,7 +5625,9 @@
         <v>68</v>
       </c>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="s">
+        <v>53</v>
+      </c>
       <c r="T53" t="s">
         <v>469</v>
       </c>
@@ -5586,7 +5696,9 @@
         <v>68</v>
       </c>
       <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="S54" t="s">
+        <v>53</v>
+      </c>
       <c r="T54" t="s">
         <v>477</v>
       </c>
@@ -5655,7 +5767,9 @@
         <v>68</v>
       </c>
       <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+      <c r="S55" t="s">
+        <v>53</v>
+      </c>
       <c r="T55" t="s">
         <v>485</v>
       </c>
@@ -5694,28 +5808,28 @@
         <v>58</v>
       </c>
       <c r="H56" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="I56" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s">
         <v>62</v>
       </c>
       <c r="L56" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M56" t="s">
         <v>64</v>
       </c>
       <c r="N56" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O56" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P56" t="s">
         <v>67</v>
@@ -5724,13 +5838,15 @@
         <v>68</v>
       </c>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="s">
+        <v>53</v>
+      </c>
       <c r="T56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U56" t="s"/>
       <c r="V56" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
